--- a/biology/Zoologie/Elaphe_dione/Elaphe_dione.xlsx
+++ b/biology/Zoologie/Elaphe_dione/Elaphe_dione.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elaphe dione est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elaphe dione est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce se rencontre :
 en Afghanistan ;
 en Arménie ;
 en Azerbaïdjan ;
@@ -555,7 +569,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elaphe dione mesure entre 100 et 150 cm. Sa coloration varie entre le gris, le jaune, le rouge et le noir.
 Ce serpent se nourrit de petits mammifères, d'oiseaux et de lézards.
@@ -587,9 +603,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à la divinité grecque Dioné[1],[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en référence à la divinité grecque Dioné,.
 </t>
         </is>
       </c>
